--- a/template/000_TEMPLATE.xlsx
+++ b/template/000_TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/Library/CloudStorage/OneDrive-AgilentTechnologies/Documents/personale/PALLAVOLO/U12F_Caluso_2324/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/Library/CloudStorage/OneDrive-AgilentTechnologies/Documents/personale/PALLAVOLO/U12F_Caluso_2324/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31DDFB4-70CA-EB45-926D-91C17132550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CEABA8-EC16-634A-A9B6-0C855690D179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="21100" xr2:uid="{1BFBEE08-C1EF-1F48-9B18-291AE5124981}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Atlete</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>U12F 2023/2024</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>De Luca</t>
+  </si>
+  <si>
+    <t>Celeste</t>
+  </si>
+  <si>
+    <t>Sara</t>
   </si>
 </sst>
 </file>
@@ -580,39 +592,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,6 +602,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -636,6 +618,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2522,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C5A359-32AD-8749-AF53-E139F7D1D684}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="230" zoomScaleNormal="100" zoomScalePageLayoutView="230" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="230" zoomScaleNormal="100" zoomScalePageLayoutView="230" workbookViewId="0">
+      <selection activeCell="A25" sqref="A24:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2553,16 +2565,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2583,10 +2595,10 @@
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
@@ -2603,8 +2615,8 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
@@ -2621,8 +2633,8 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
@@ -2639,8 +2651,8 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
@@ -2657,8 +2669,8 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
@@ -2675,8 +2687,8 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
@@ -2693,8 +2705,8 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
@@ -2711,8 +2723,8 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
@@ -2729,8 +2741,8 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
@@ -2747,8 +2759,8 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
@@ -2765,8 +2777,8 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
@@ -2783,8 +2795,8 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
@@ -2801,731 +2813,743 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="34"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="35"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="24"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="36"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="37"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="36"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="37"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="36"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="37"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="36"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="37"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="36"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="37"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="36"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="37"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="27"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="36"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="37"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="27"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="36"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="37"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="36"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="37"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="36"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="37"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="36"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="37"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="27"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="36"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="37"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="27"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="38"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="40"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="30"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E16">
-    <sortCondition ref="B5:B16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E18">
+    <sortCondition ref="B5:B18"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{6A7AA631-B972-764B-8F62-3F58B4C05DDE}">
@@ -3533,15 +3557,60 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="79">
-    <mergeCell ref="A84:H97"/>
-    <mergeCell ref="F76:H82"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="F28:H34"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F36:H42"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F44:H50"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F52:H58"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="B74:E74"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="F60:H66"/>
@@ -3558,60 +3627,15 @@
     <mergeCell ref="B71:E71"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F52:H58"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="F44:H50"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F36:H42"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F28:H34"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A84:H97"/>
+    <mergeCell ref="F76:H82"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B76:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="5"/>

--- a/template/000_TEMPLATE.xlsx
+++ b/template/000_TEMPLATE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/Library/CloudStorage/OneDrive-AgilentTechnologies/Documents/personale/PALLAVOLO/U12F_Caluso_2324/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/personale/PALLAVOLO/U12F_Caluso_2324/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CEABA8-EC16-634A-A9B6-0C855690D179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225FCB7D-BF20-9D4C-A233-7DED4135EA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="21100" xr2:uid="{1BFBEE08-C1EF-1F48-9B18-291AE5124981}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="32400" windowHeight="21980" xr2:uid="{1BFBEE08-C1EF-1F48-9B18-291AE5124981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,6 +592,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,9 +635,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -618,36 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2534,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C5A359-32AD-8749-AF53-E139F7D1D684}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="230" zoomScaleNormal="100" zoomScalePageLayoutView="230" workbookViewId="0">
-      <selection activeCell="A25" sqref="A24:XFD25"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="230" zoomScaleNormal="100" zoomScalePageLayoutView="230" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2565,16 +2565,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2595,14 +2595,14 @@
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>17</v>
@@ -2615,8 +2615,8 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>19</v>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>20</v>
@@ -2669,12 +2669,12 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -2687,12 +2687,12 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>22</v>
@@ -2705,12 +2705,12 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>23</v>
@@ -2723,12 +2723,12 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>24</v>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>25</v>
@@ -2759,8 +2759,8 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
@@ -2777,12 +2777,12 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>27</v>
@@ -2795,12 +2795,12 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>28</v>
@@ -2813,12 +2813,12 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>40</v>
@@ -2826,15 +2826,17 @@
       <c r="C17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="18">
+        <v>41029</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>41</v>
@@ -2842,21 +2844,23 @@
       <c r="C18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18">
+        <v>41321</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
         <v>9</v>
@@ -2872,680 +2876,680 @@
     </row>
     <row r="21" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="34"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="34"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="34"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="34"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="24"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="25"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="27"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="37"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="27"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="27"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="37"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="25"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="27"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="37"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="25"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="27"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="25"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="27"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="37"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="25"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="27"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="37"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="25"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="27"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="37"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="25"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="27"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="37"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="25"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="27"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="37"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="25"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="27"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="37"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="25"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="27"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="37"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="30"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="40"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E18">
@@ -3557,6 +3561,69 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="79">
+    <mergeCell ref="A84:H97"/>
+    <mergeCell ref="F76:H82"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="F60:H66"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="F68:H74"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F52:H58"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F44:H50"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F36:H42"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F28:H34"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A3:H3"/>
@@ -3573,69 +3640,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="F28:H34"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F36:H42"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F44:H50"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F52:H58"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="F60:H66"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="F68:H74"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="A84:H97"/>
-    <mergeCell ref="F76:H82"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B76:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="5"/>
